--- a/Консп.xlsx
+++ b/Консп.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1121">
   <si>
     <t>&lt;a&gt;</t>
   </si>
@@ -4601,15 +4601,9 @@
     <t>for</t>
   </si>
   <si>
-    <t>дозволяє об'єднати елементи масиву в рядок</t>
-  </si>
-  <si>
     <t>const words = ["JavaScript", "is", "amazing"];
 console.log(words.join("")); // 'JavaScriptisamazing'
 console.log(words.join(" ")); // 'JavaScript is amazing'</t>
-  </si>
-  <si>
-    <t>перетворити рядок на масив, розбивши його за вказаним роздільником</t>
   </si>
   <si>
     <t>const message = "JavaScript essentials";
@@ -6324,6 +6318,300 @@
       </rPr>
       <t xml:space="preserve"> елемента elem</t>
     </r>
+  </si>
+  <si>
+    <t>innerHTML</t>
+  </si>
+  <si>
+    <t>читання</t>
+  </si>
+  <si>
+    <t>document.querySelector(".article");
+console.log(article.innerHTML);</t>
+  </si>
+  <si>
+    <t>Зміна</t>
+  </si>
+  <si>
+    <t>const title = document.querySelector(".article .title");
+title.innerHTML = 'New and &lt;span class="accent"&gt;improved&lt;/span&gt; title';</t>
+  </si>
+  <si>
+    <t>insertAdjacentHTML()</t>
+  </si>
+  <si>
+    <t>це сучасний метод для додавання рядка з HTML-тегами перед, після або всередину елемента. Він вирішує проблему innerHTML з повторною серіалізацією вмісту елемента під час додавання розмітки до вже існуючої.</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "beforebegin" — перед element
+    "afterbegin" — всередині element, перед усіма дітьми
+    "beforeend" — всередині element, після усіх дітей
+    "afterend" — після element</t>
+  </si>
+  <si>
+    <t>Події</t>
+  </si>
+  <si>
+    <t>element.addEventListener(event, handler, options)</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>рядок, що містить ім'я події, наприклад, "click"</t>
+  </si>
+  <si>
+    <t>додає слухача події на елемент</t>
+  </si>
+  <si>
+    <t>колбек-функція, яка буде викликана під час настання події</t>
+  </si>
+  <si>
+    <t>handler</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>необов'язковий об'єкт параметрів із розширеними налаштуваннями</t>
+  </si>
+  <si>
+    <t>list.insertAdjacentHTML("beforeend", markup);
+list.insertAdjacentHTML("beforebegin", "&lt;h2&gt;Popular technologies&lt;/h2&gt;");</t>
+  </si>
+  <si>
+    <t>addEventListener(event, handler, options)</t>
+  </si>
+  <si>
+    <t>element.removeEventListener(event, handler, options)</t>
+  </si>
+  <si>
+    <t>removeListenerBtn.addEventListener("click", () =&gt; {
+  btn.removeEventListener("click", handleClick);
+  console.log("click event listener was removed from btn");</t>
+  </si>
+  <si>
+    <t>Події клавіатури</t>
+  </si>
+  <si>
+    <t>keydown</t>
+  </si>
+  <si>
+    <t>keyup</t>
+  </si>
+  <si>
+    <t>подія, що відбувається при натисканні клавіші</t>
+  </si>
+  <si>
+    <t>подія, що відбувається, коли клавішу відпустили</t>
+  </si>
+  <si>
+    <t>document.addEventListener("keydown", event =&gt; {
+  console.log("Keydown: ", event);
+});
+document.addEventListener("keyup", event =&gt; {
+  console.log("Keyup: ", event);
+});</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>візьми a, якщо він не null і не undefined, інакше візьми b</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Об'єкт RegExp - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>вбудований інструмент для пошуку, валідації та заміни текстових шаблонів (патернів) у рядках</t>
+    </r>
+  </si>
+  <si>
+    <t>test()</t>
+  </si>
+  <si>
+    <t>Перевірка відповідності шаблону</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>будь-яка цифра</t>
+  </si>
+  <si>
+    <t>\D</t>
+  </si>
+  <si>
+    <t>будь-який НЕ-цифровий символ</t>
+  </si>
+  <si>
+    <t>\w</t>
+  </si>
+  <si>
+    <t>буква + цифра + _</t>
+  </si>
+  <si>
+    <t>\s</t>
+  </si>
+  <si>
+    <t>пробільні символи</t>
+  </si>
+  <si>
+    <t>\S</t>
+  </si>
+  <si>
+    <t>НЕ пробільні</t>
+  </si>
+  <si>
+    <t>\d  ≡  [0-9]</t>
+  </si>
+  <si>
+    <t>function checkPassword(password) {
+const hasDigit = /\d/.test(password);   // перевірка на наявність цифр</t>
+  </si>
+  <si>
+    <t>Події елементів форм</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>const form = document.querySelector("form");
+form.addEventListener("submit", event =&gt; {
+ // ...
+});</t>
+  </si>
+  <si>
+    <t>Подія submit відбувається безпосередньо на формі (тег form), тому обробник подій слід встановлювати саме на ній.</t>
+  </si>
+  <si>
+    <t>preventDefault()</t>
+  </si>
+  <si>
+    <t>Для скасування дії браузера за замовчуванням в об'єкта події</t>
+  </si>
+  <si>
+    <t>const form = document.querySelector("form");
+form.addEventListener("submit", event =&gt; {
+ event.preventDefault();
+});</t>
+  </si>
+  <si>
+    <t>const form = event.target;
+const login = form.elements.login.value;
+const password = form.elements.password.value;</t>
+  </si>
+  <si>
+    <t>event.target;</t>
+  </si>
+  <si>
+    <t>отримуємо значення полів, які ввів юзер</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>відбувається після втрати фокусу за умови, що відбулася зміна значення в елементі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    відбувається при кожній зміні значення (при введенні або видаленні)
+    не залежить від втрати фокусу</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>відбувається під час фокусування на елементі</t>
+  </si>
+  <si>
+    <t>відбувається при втраті фокусу, наприклад, користувач клікає в іншому місці екрана</t>
+  </si>
+  <si>
+    <t>setFocusBtn.addEventListener("click", () =&gt; {
+  textInput.focus();
+});</t>
+  </si>
+  <si>
+    <t>removeFocusBtn.addEventListener("click", () =&gt; {
+  textInput.blur();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">дозволяє об'єднати елементи масиву </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>в рядок</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">перетворити </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>рядок на масив</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, розбивши його за вказаним роздільником</t>
+    </r>
+  </si>
+  <si>
+    <t>event.currentTarget</t>
+  </si>
+  <si>
+    <t>це посилання на поточний елемент, до якого прив’язаний поточний обробник поді</t>
+  </si>
+  <si>
+    <t>event.stopPropagation()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Зупиняє "спливання" події в DOM-дереві. Це означає, що жоден батьківський елемент не зможе відловити цю подію.
+    Не заважає іншим обробникам подій виконуватися на тому ж самому елементі.</t>
+  </si>
+  <si>
+    <t>event.stopImmediatePropagation()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Зупиняє "спливання" події так само, як event.stopPropagation().
+    Також зупиняє виконання всіх інших обробників подій, які слухають цю ж подію на даному елементі, навіть якщо вони були зареєстровані перед цим.</t>
   </si>
 </sst>
 </file>
@@ -6750,7 +7038,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6886,6 +7174,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6937,10 +7247,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6955,12 +7280,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6969,24 +7288,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7300,16 +7601,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="61"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
@@ -7676,10 +7977,10 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
@@ -8121,10 +8422,10 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B19" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -8334,10 +8635,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="72" t="s">
         <v>675</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="72"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
@@ -8380,10 +8681,10 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="72" t="s">
         <v>690</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="72"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
@@ -8575,16 +8876,16 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="25" t="s">
@@ -8708,16 +9009,16 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="77" t="s">
         <v>523</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
@@ -8791,11 +9092,11 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="77" t="s">
         <v>546</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="28" t="s">
@@ -8853,35 +9154,35 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="72" t="s">
         <v>552</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="78" t="s">
         <v>496</v>
       </c>
-      <c r="B34" s="70"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="28" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="B35" s="67"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="24" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="75" t="s">
         <v>550</v>
       </c>
-      <c r="B36" s="67"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="24" t="s">
         <v>551</v>
       </c>
@@ -9031,11 +9332,11 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="72" t="s">
         <v>555</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="20" t="s">
@@ -9190,10 +9491,10 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="B76" s="64"/>
+      <c r="B76" s="72"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="29" t="s">
@@ -9201,11 +9502,11 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="75" t="s">
+      <c r="A78" s="83" t="s">
         <v>569</v>
       </c>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="83"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="35" t="s">
@@ -9238,11 +9539,11 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="75" t="s">
+      <c r="A83" s="83" t="s">
         <v>573</v>
       </c>
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="41" t="s">
@@ -9307,11 +9608,11 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="64" t="s">
+      <c r="A94" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B94" s="64"/>
-      <c r="C94" s="64"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="72"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="20" t="s">
@@ -9556,11 +9857,11 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="64" t="s">
+      <c r="A126" s="72" t="s">
         <v>657</v>
       </c>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
+      <c r="B126" s="72"/>
+      <c r="C126" s="72"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="20" t="s">
@@ -9723,10 +10024,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="64.5" customHeight="1">
-      <c r="A147" s="72" t="s">
+      <c r="A147" s="80" t="s">
         <v>658</v>
       </c>
-      <c r="B147" s="73"/>
+      <c r="B147" s="81"/>
       <c r="C147" s="26" t="s">
         <v>292</v>
       </c>
@@ -9806,11 +10107,11 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="64" t="s">
+      <c r="A157" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="64"/>
-      <c r="C157" s="64"/>
+      <c r="B157" s="72"/>
+      <c r="C157" s="72"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="20" t="s">
@@ -10088,92 +10389,92 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="64" t="s">
+      <c r="A196" s="72" t="s">
         <v>624</v>
       </c>
-      <c r="B196" s="64"/>
+      <c r="B196" s="72"/>
       <c r="C196" s="31"/>
     </row>
     <row r="197" spans="1:3" ht="15.75">
       <c r="A197" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="B197" s="67" t="s">
+      <c r="B197" s="75" t="s">
         <v>626</v>
       </c>
-      <c r="C197" s="67"/>
+      <c r="C197" s="75"/>
     </row>
     <row r="198" spans="1:3" ht="15.75">
       <c r="A198" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="B198" s="67" t="s">
+      <c r="B198" s="75" t="s">
         <v>627</v>
       </c>
-      <c r="C198" s="67"/>
+      <c r="C198" s="75"/>
     </row>
     <row r="199" spans="1:3" ht="15.75">
       <c r="A199" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="B199" s="67" t="s">
+      <c r="B199" s="75" t="s">
         <v>629</v>
       </c>
-      <c r="C199" s="67"/>
+      <c r="C199" s="75"/>
     </row>
     <row r="200" spans="1:3" ht="15.75">
       <c r="A200" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="B200" s="67" t="s">
+      <c r="B200" s="75" t="s">
         <v>631</v>
       </c>
-      <c r="C200" s="67"/>
+      <c r="C200" s="75"/>
     </row>
     <row r="201" spans="1:3" ht="15.75">
       <c r="A201" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="B201" s="67" t="s">
+      <c r="B201" s="75" t="s">
         <v>633</v>
       </c>
-      <c r="C201" s="67"/>
+      <c r="C201" s="75"/>
     </row>
     <row r="202" spans="1:3" ht="15.75">
       <c r="A202" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="B202" s="67" t="s">
+      <c r="B202" s="75" t="s">
         <v>635</v>
       </c>
-      <c r="C202" s="67"/>
+      <c r="C202" s="75"/>
     </row>
     <row r="203" spans="1:3" ht="15.75">
       <c r="A203" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B203" s="67" t="s">
+      <c r="B203" s="75" t="s">
         <v>637</v>
       </c>
-      <c r="C203" s="67"/>
+      <c r="C203" s="75"/>
     </row>
     <row r="204" spans="1:3" ht="15.75">
       <c r="A204" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="B204" s="67" t="s">
+      <c r="B204" s="75" t="s">
         <v>639</v>
       </c>
-      <c r="C204" s="67"/>
+      <c r="C204" s="75"/>
     </row>
     <row r="205" spans="1:3" ht="15.75">
       <c r="A205" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="B205" s="67" t="s">
+      <c r="B205" s="75" t="s">
         <v>641</v>
       </c>
-      <c r="C205" s="67"/>
+      <c r="C205" s="75"/>
     </row>
     <row r="206" spans="1:3" ht="15.75">
       <c r="A206" s="33" t="s">
@@ -10183,66 +10484,66 @@
       <c r="C206" s="34"/>
     </row>
     <row r="207" spans="1:3" ht="15.75">
-      <c r="A207" s="65" t="s">
+      <c r="A207" s="73" t="s">
         <v>643</v>
       </c>
-      <c r="B207" s="66"/>
+      <c r="B207" s="74"/>
       <c r="C207" s="34"/>
     </row>
     <row r="208" spans="1:3" ht="15.75">
-      <c r="A208" s="65" t="s">
+      <c r="A208" s="73" t="s">
         <v>644</v>
       </c>
-      <c r="B208" s="66"/>
+      <c r="B208" s="74"/>
       <c r="C208" s="34"/>
     </row>
     <row r="209" spans="1:3" ht="15.75">
-      <c r="A209" s="65" t="s">
+      <c r="A209" s="73" t="s">
         <v>645</v>
       </c>
-      <c r="B209" s="66"/>
+      <c r="B209" s="74"/>
       <c r="C209" s="34"/>
     </row>
     <row r="210" spans="1:3" ht="15.75">
-      <c r="A210" s="65" t="s">
+      <c r="A210" s="73" t="s">
         <v>646</v>
       </c>
-      <c r="B210" s="66"/>
+      <c r="B210" s="74"/>
       <c r="C210" s="34"/>
     </row>
     <row r="211" spans="1:3" ht="15.75">
-      <c r="A211" s="65" t="s">
+      <c r="A211" s="73" t="s">
         <v>647</v>
       </c>
-      <c r="B211" s="66"/>
+      <c r="B211" s="74"/>
       <c r="C211" s="34"/>
     </row>
     <row r="212" spans="1:3" ht="15.75">
-      <c r="A212" s="65" t="s">
+      <c r="A212" s="73" t="s">
         <v>648</v>
       </c>
-      <c r="B212" s="66"/>
+      <c r="B212" s="74"/>
       <c r="C212" s="34"/>
     </row>
     <row r="213" spans="1:3" ht="15.75">
-      <c r="A213" s="65" t="s">
+      <c r="A213" s="73" t="s">
         <v>649</v>
       </c>
-      <c r="B213" s="66"/>
+      <c r="B213" s="74"/>
       <c r="C213" s="34"/>
     </row>
     <row r="214" spans="1:3" ht="15.75">
-      <c r="A214" s="65" t="s">
+      <c r="A214" s="73" t="s">
         <v>650</v>
       </c>
-      <c r="B214" s="66"/>
+      <c r="B214" s="74"/>
       <c r="C214" s="34"/>
     </row>
     <row r="215" spans="1:3" ht="15.75">
-      <c r="A215" s="65" t="s">
+      <c r="A215" s="73" t="s">
         <v>651</v>
       </c>
-      <c r="B215" s="66"/>
+      <c r="B215" s="74"/>
       <c r="C215" s="34"/>
     </row>
     <row r="216" spans="1:3">
@@ -10294,11 +10595,11 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="64" t="s">
+      <c r="A222" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="B222" s="64"/>
-      <c r="C222" s="64"/>
+      <c r="B222" s="72"/>
+      <c r="C222" s="72"/>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="20" t="s">
@@ -10451,11 +10752,11 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="68" t="s">
+      <c r="A244" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="B244" s="68"/>
-      <c r="C244" s="68"/>
+      <c r="B244" s="76"/>
+      <c r="C244" s="76"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="20" t="s">
@@ -10540,10 +10841,10 @@
       </c>
     </row>
     <row r="258" spans="1:3" ht="74.25" customHeight="1">
-      <c r="A258" s="74" t="s">
+      <c r="A258" s="82" t="s">
         <v>802</v>
       </c>
-      <c r="B258" s="74"/>
+      <c r="B258" s="82"/>
     </row>
     <row r="259" spans="1:3" ht="15.75">
       <c r="A259" s="49" t="s">
@@ -10599,10 +10900,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10614,11 +10915,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>720</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="50" t="s">
@@ -10688,15 +10989,15 @@
         <v>734</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="91" t="s">
         <v>755</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="51" t="s">
@@ -10763,11 +11064,11 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="86" t="s">
         <v>761</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="50" t="s">
@@ -10825,11 +11126,11 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="86" t="s">
         <v>756</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
     </row>
     <row r="25" spans="1:3" ht="30">
       <c r="A25" s="52" t="s">
@@ -10855,1109 +11156,1423 @@
         <v>826</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30">
-      <c r="A29" s="52" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="52" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30">
+      <c r="A30" s="52" t="s">
         <v>758</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B30" s="47" t="s">
         <v>759</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C30" s="47" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="77" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="86" t="s">
         <v>776</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="50" t="s">
-        <v>876</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>780</v>
-      </c>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="50" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B32" s="50" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="50" t="s">
+        <v>875</v>
+      </c>
+      <c r="B33" s="50" t="s">
         <v>779</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30">
-      <c r="A33" s="50" t="s">
-        <v>878</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="50" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="50" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B35" s="50" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="50" t="s">
+        <v>878</v>
+      </c>
+      <c r="B36" s="50" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
-      <c r="A36" s="50" t="s">
-        <v>866</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30">
-      <c r="A38" s="50" t="s">
+    <row r="37" spans="1:3" ht="30">
+      <c r="A37" s="50" t="s">
+        <v>864</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30">
+      <c r="A39" s="50" t="s">
         <v>777</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B39" s="50" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45">
-      <c r="A39" s="50" t="s">
-        <v>874</v>
-      </c>
-      <c r="B39" s="50" t="s">
+    <row r="40" spans="1:3" ht="30">
+      <c r="A40" s="50" t="s">
+        <v>872</v>
+      </c>
+      <c r="B40" s="50" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.75">
-      <c r="A41" s="81" t="s">
-        <v>906</v>
-      </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-    </row>
-    <row r="42" spans="1:3" ht="45">
-      <c r="A42" s="55" t="s">
-        <v>783</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>867</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>784</v>
-      </c>
+    <row r="42" spans="1:3" ht="18.75">
+      <c r="A42" s="94" t="s">
+        <v>904</v>
+      </c>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
     </row>
     <row r="43" spans="1:3" ht="45">
       <c r="A43" s="55" t="s">
+        <v>783</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45">
+      <c r="A44" s="55" t="s">
         <v>785</v>
       </c>
-      <c r="B43" s="53" t="s">
-        <v>868</v>
-      </c>
-      <c r="C43" s="53" t="s">
+      <c r="B44" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="C44" s="53" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="60">
-      <c r="A44" s="55" t="s">
+    <row r="45" spans="1:3" ht="60">
+      <c r="A45" s="55" t="s">
         <v>819</v>
       </c>
-      <c r="B44" s="53" t="s">
-        <v>869</v>
-      </c>
-      <c r="C44" s="53" t="s">
+      <c r="B45" s="53" t="s">
+        <v>867</v>
+      </c>
+      <c r="C45" s="53" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="55" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="55" t="s">
         <v>788</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B46" s="53" t="s">
         <v>789</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C46" s="53" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="55" t="s">
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="55" t="s">
         <v>791</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B47" s="53" t="s">
         <v>792</v>
       </c>
-      <c r="C46" s="53" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="55" t="s">
+      <c r="C47" s="53" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="55" t="s">
         <v>820</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B48" s="53" t="s">
         <v>821</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C48" s="53" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30">
-      <c r="A48" s="55" t="s">
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="55" t="s">
         <v>793</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B49" s="53" t="s">
         <v>795</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C49" s="53" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-    </row>
-    <row r="50" spans="1:3" ht="18.75">
-      <c r="A50" s="76" t="s">
-        <v>873</v>
-      </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
+    <row r="50" spans="1:3">
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
     </row>
     <row r="51" spans="1:3" ht="18.75">
-      <c r="A51" s="79" t="s">
-        <v>872</v>
-      </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-    </row>
-    <row r="52" spans="1:3" ht="30">
-      <c r="A52" s="55" t="s">
-        <v>805</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>806</v>
-      </c>
-      <c r="C52" s="53" t="s">
+      <c r="A51" s="90" t="s">
+        <v>871</v>
+      </c>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+    </row>
+    <row r="52" spans="1:3" ht="18.75">
+      <c r="A52" s="92" t="s">
         <v>870</v>
       </c>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
     </row>
     <row r="53" spans="1:3" ht="30">
       <c r="A53" s="55" t="s">
+        <v>805</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>806</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30">
+      <c r="A54" s="55" t="s">
         <v>808</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B54" s="54" t="s">
         <v>807</v>
       </c>
-      <c r="C53" s="53" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18.75">
-      <c r="A54" s="80" t="s">
-        <v>882</v>
-      </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="55" t="s">
-        <v>809</v>
-      </c>
-      <c r="B55" s="53" t="s">
-        <v>811</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>828</v>
-      </c>
+      <c r="C54" s="53" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75">
+      <c r="A55" s="93" t="s">
+        <v>880</v>
+      </c>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="55" t="s">
+        <v>809</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>811</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="55" t="s">
         <v>810</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B57" s="53" t="s">
         <v>812</v>
       </c>
-      <c r="C56" s="53"/>
-    </row>
-    <row r="57" spans="1:3" ht="45">
-      <c r="A57" s="55" t="s">
+      <c r="C57" s="53"/>
+    </row>
+    <row r="58" spans="1:3" ht="45">
+      <c r="A58" s="55" t="s">
         <v>813</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B58" s="53" t="s">
         <v>814</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C58" s="53" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30">
-      <c r="A58" s="55" t="s">
+    <row r="59" spans="1:3" ht="30">
+      <c r="A59" s="55" t="s">
         <v>816</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B59" s="53" t="s">
         <v>818</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C59" s="53" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75">
-      <c r="A59" s="79" t="s">
-        <v>881</v>
-      </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-    </row>
-    <row r="60" spans="1:3" ht="30">
-      <c r="A60" s="53" t="s">
-        <v>829</v>
-      </c>
-      <c r="B60" s="53" t="s">
-        <v>830</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>831</v>
-      </c>
+    <row r="60" spans="1:3" ht="18.75">
+      <c r="A60" s="92" t="s">
+        <v>879</v>
+      </c>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
     </row>
     <row r="61" spans="1:3" ht="30">
       <c r="A61" s="53" t="s">
+        <v>829</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>830</v>
+      </c>
+      <c r="C61" s="53" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30">
+      <c r="A62" s="53" t="s">
         <v>832</v>
       </c>
-      <c r="B61" s="53" t="s">
-        <v>871</v>
-      </c>
-      <c r="C61" s="53" t="s">
+      <c r="B62" s="53" t="s">
+        <v>869</v>
+      </c>
+      <c r="C62" s="53" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45">
-      <c r="A62" s="53" t="s">
+    <row r="63" spans="1:3" ht="45">
+      <c r="A63" s="53" t="s">
         <v>834</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B63" s="53" t="s">
         <v>836</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C63" s="53" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="53" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="53" t="s">
+        <v>891</v>
+      </c>
+      <c r="B64" s="53" t="s">
         <v>893</v>
       </c>
-      <c r="B63" s="53" t="s">
-        <v>895</v>
-      </c>
-      <c r="C63" s="53" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.75">
-      <c r="A64" s="80" t="s">
-        <v>883</v>
-      </c>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="53" t="s">
-        <v>884</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>885</v>
-      </c>
-      <c r="C65" s="53" t="s">
-        <v>886</v>
-      </c>
+      <c r="C64" s="53" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75">
+      <c r="A65" s="93" t="s">
+        <v>881</v>
+      </c>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="53" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B66" s="53" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="53" t="s">
+        <v>885</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>887</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="53" t="s">
+        <v>888</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>889</v>
+      </c>
+      <c r="C68" s="53" t="s">
         <v>890</v>
       </c>
-      <c r="B67" s="53" t="s">
-        <v>891</v>
-      </c>
-      <c r="C67" s="53" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="18.75">
-      <c r="A68" s="80" t="s">
-        <v>896</v>
-      </c>
-      <c r="B68" s="80"/>
-      <c r="C68" s="80"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="53" t="s">
-        <v>897</v>
-      </c>
-      <c r="B69" s="53" t="s">
-        <v>905</v>
-      </c>
-      <c r="C69" s="53" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30">
+    </row>
+    <row r="69" spans="1:3" ht="18.75">
+      <c r="A69" s="93" t="s">
+        <v>894</v>
+      </c>
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="53" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B70" s="53" t="s">
         <v>903</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30">
       <c r="A71" s="53" t="s">
+        <v>897</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>901</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30">
+      <c r="A72" s="53" t="s">
+        <v>898</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>902</v>
+      </c>
+      <c r="C72" s="53" t="s">
         <v>900</v>
       </c>
-      <c r="B71" s="53" t="s">
-        <v>904</v>
-      </c>
-      <c r="C71" s="53" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-    </row>
-    <row r="73" spans="1:3" ht="18.75">
-      <c r="A73" s="76" t="s">
-        <v>837</v>
-      </c>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-    </row>
-    <row r="74" spans="1:3" ht="75">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="84" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+    </row>
+    <row r="74" spans="1:3" ht="35.25" customHeight="1">
       <c r="A74" s="53" t="s">
-        <v>838</v>
+        <v>1080</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>839</v>
+        <v>1081</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="75">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="53" t="s">
-        <v>840</v>
+        <v>1082</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>841</v>
+        <v>1083</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>910</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="53" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="53" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C77" s="53"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="53" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C78" s="53"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C79" s="53"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+    </row>
+    <row r="83" spans="1:3" ht="18.75">
+      <c r="A83" s="90" t="s">
+        <v>837</v>
+      </c>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
+    </row>
+    <row r="84" spans="1:3" ht="75">
+      <c r="A84" s="53" t="s">
+        <v>838</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>839</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="75">
+      <c r="A85" s="53" t="s">
+        <v>840</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>841</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="53" t="s">
         <v>842</v>
       </c>
-      <c r="B76" s="53" t="s">
-        <v>907</v>
-      </c>
-      <c r="C76" s="53" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="45">
-      <c r="A77" s="53" t="s">
-        <v>911</v>
-      </c>
-      <c r="B77" s="53" t="s">
-        <v>913</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="75">
-      <c r="A78" s="53" t="s">
-        <v>912</v>
-      </c>
-      <c r="B78" s="53" t="s">
-        <v>920</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="60">
-      <c r="A79" s="53" t="s">
-        <v>915</v>
-      </c>
-      <c r="B79" s="53" t="s">
-        <v>916</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="45">
-      <c r="A80" s="53" t="s">
-        <v>917</v>
-      </c>
-      <c r="B80" s="53" t="s">
-        <v>918</v>
-      </c>
-      <c r="C80" s="53" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="18.75">
-      <c r="A81" s="76" t="s">
-        <v>929</v>
-      </c>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
-    </row>
-    <row r="82" spans="1:3" ht="45">
-      <c r="A82" s="53" t="s">
-        <v>923</v>
-      </c>
-      <c r="B82" s="53" t="s">
-        <v>843</v>
-      </c>
-      <c r="C82" s="53" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="30">
-      <c r="A83" s="53" t="s">
-        <v>922</v>
-      </c>
-      <c r="B83" s="53" t="s">
-        <v>845</v>
-      </c>
-      <c r="C83" s="53" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="60">
-      <c r="A84" s="53" t="s">
-        <v>948</v>
-      </c>
-      <c r="B84" s="53" t="s">
-        <v>949</v>
-      </c>
-      <c r="C84" s="53" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="45">
-      <c r="A85" s="53" t="s">
-        <v>921</v>
-      </c>
-      <c r="B85" s="53" t="s">
-        <v>924</v>
-      </c>
-      <c r="C85" s="53" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="75">
-      <c r="A86" s="53" t="s">
-        <v>946</v>
-      </c>
       <c r="B86" s="53" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>944</v>
+        <v>906</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="45">
       <c r="A87" s="53" t="s">
-        <v>813</v>
+        <v>909</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>926</v>
-      </c>
-      <c r="C87" s="58" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="45">
+        <v>911</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="75">
       <c r="A88" s="53" t="s">
-        <v>834</v>
+        <v>910</v>
       </c>
       <c r="B88" s="53" t="s">
-        <v>849</v>
-      </c>
-      <c r="C88" s="58" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="60">
+        <v>918</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="45">
       <c r="A89" s="53" t="s">
-        <v>850</v>
+        <v>913</v>
       </c>
       <c r="B89" s="53" t="s">
-        <v>935</v>
-      </c>
-      <c r="C89" s="56" t="s">
+        <v>914</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="45">
+      <c r="A90" s="53" t="s">
+        <v>915</v>
+      </c>
+      <c r="B90" s="53" t="s">
+        <v>916</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18.75">
+      <c r="A91" s="90" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="60">
-      <c r="A90" s="53" t="s">
-        <v>934</v>
-      </c>
-      <c r="B90" s="53" t="s">
-        <v>936</v>
-      </c>
-      <c r="C90" s="56" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="60">
-      <c r="A91" s="53" t="s">
-        <v>938</v>
-      </c>
-      <c r="B91" s="53" t="s">
-        <v>939</v>
-      </c>
-      <c r="C91" s="56" t="s">
-        <v>940</v>
-      </c>
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
     </row>
     <row r="92" spans="1:3" ht="45">
-      <c r="A92" s="57" t="s">
-        <v>942</v>
-      </c>
-      <c r="B92" s="57" t="s">
-        <v>941</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="45">
+      <c r="A92" s="53" t="s">
+        <v>921</v>
+      </c>
+      <c r="B92" s="53" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C92" s="53" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30">
       <c r="A93" s="53" t="s">
-        <v>829</v>
+        <v>920</v>
       </c>
       <c r="B93" s="53" t="s">
-        <v>855</v>
-      </c>
-      <c r="C93" s="56" t="s">
-        <v>928</v>
+        <v>1114</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="45">
       <c r="A94" s="53" t="s">
-        <v>834</v>
+        <v>946</v>
       </c>
       <c r="B94" s="53" t="s">
-        <v>932</v>
-      </c>
-      <c r="C94" s="56" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="60">
+        <v>947</v>
+      </c>
+      <c r="C94" s="53" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45">
       <c r="A95" s="53" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B95" s="53" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="45">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="75">
       <c r="A96" s="53" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>953</v>
-      </c>
-      <c r="C96" s="56" t="s">
-        <v>951</v>
+        <v>943</v>
+      </c>
+      <c r="C96" s="53" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="45">
       <c r="A97" s="53" t="s">
-        <v>954</v>
+        <v>813</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>955</v>
-      </c>
-      <c r="C97" s="56" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="60">
+        <v>924</v>
+      </c>
+      <c r="C97" s="58" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="45">
       <c r="A98" s="53" t="s">
-        <v>957</v>
+        <v>834</v>
       </c>
       <c r="B98" s="53" t="s">
-        <v>958</v>
-      </c>
-      <c r="C98" s="56" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="30">
+        <v>847</v>
+      </c>
+      <c r="C98" s="58" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="60">
       <c r="A99" s="53" t="s">
-        <v>960</v>
+        <v>848</v>
       </c>
       <c r="B99" s="53" t="s">
-        <v>961</v>
+        <v>933</v>
       </c>
       <c r="C99" s="56" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="45">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="60">
       <c r="A100" s="53" t="s">
-        <v>963</v>
+        <v>932</v>
       </c>
       <c r="B100" s="53" t="s">
-        <v>964</v>
+        <v>934</v>
       </c>
       <c r="C100" s="56" t="s">
-        <v>965</v>
+        <v>935</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="60">
       <c r="A101" s="53" t="s">
-        <v>966</v>
+        <v>936</v>
       </c>
       <c r="B101" s="53" t="s">
-        <v>967</v>
+        <v>937</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="30">
-      <c r="A102" s="53" t="s">
-        <v>947</v>
-      </c>
-      <c r="B102" s="53" t="s">
-        <v>969</v>
-      </c>
-      <c r="C102" s="53" t="s">
-        <v>970</v>
+        <v>938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="45">
+      <c r="A102" s="57" t="s">
+        <v>940</v>
+      </c>
+      <c r="B102" s="57" t="s">
+        <v>939</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="45">
       <c r="A103" s="53" t="s">
-        <v>971</v>
+        <v>829</v>
       </c>
       <c r="B103" s="53" t="s">
-        <v>972</v>
-      </c>
-      <c r="C103" s="53" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="90">
+        <v>853</v>
+      </c>
+      <c r="C103" s="56" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="45">
       <c r="A104" s="53" t="s">
-        <v>975</v>
+        <v>834</v>
       </c>
       <c r="B104" s="53" t="s">
-        <v>974</v>
-      </c>
-      <c r="C104" s="53" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="105">
+        <v>930</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="45">
       <c r="A105" s="53" t="s">
-        <v>857</v>
+        <v>913</v>
       </c>
       <c r="B105" s="53" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="C105" s="53" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="18.75">
-      <c r="A107" s="76" t="s">
-        <v>978</v>
-      </c>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
-    </row>
-    <row r="108" spans="1:3" ht="30">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="45">
+      <c r="A106" s="53" t="s">
+        <v>950</v>
+      </c>
+      <c r="B106" s="53" t="s">
+        <v>951</v>
+      </c>
+      <c r="C106" s="56" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="45">
+      <c r="A107" s="53" t="s">
+        <v>952</v>
+      </c>
+      <c r="B107" s="53" t="s">
+        <v>953</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="60">
       <c r="A108" s="53" t="s">
-        <v>859</v>
+        <v>955</v>
       </c>
       <c r="B108" s="53" t="s">
-        <v>863</v>
-      </c>
-      <c r="C108" s="53" t="s">
-        <v>860</v>
+        <v>956</v>
+      </c>
+      <c r="C108" s="56" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30">
       <c r="A109" s="53" t="s">
-        <v>861</v>
+        <v>958</v>
       </c>
       <c r="B109" s="53" t="s">
-        <v>862</v>
-      </c>
-      <c r="C109" s="53" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="82"/>
-      <c r="B110" s="82"/>
-      <c r="C110" s="82"/>
-    </row>
-    <row r="111" spans="1:3" ht="18.75">
-      <c r="A111" s="76" t="s">
-        <v>979</v>
-      </c>
-      <c r="B111" s="76"/>
-      <c r="C111" s="76"/>
-    </row>
-    <row r="112" spans="1:3" ht="33.75" customHeight="1">
+        <v>959</v>
+      </c>
+      <c r="C109" s="56" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30">
+      <c r="A110" s="53" t="s">
+        <v>961</v>
+      </c>
+      <c r="B110" s="53" t="s">
+        <v>962</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="60">
+      <c r="A111" s="53" t="s">
+        <v>964</v>
+      </c>
+      <c r="B111" s="53" t="s">
+        <v>965</v>
+      </c>
+      <c r="C111" s="56" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30">
       <c r="A112" s="53" t="s">
-        <v>977</v>
+        <v>945</v>
       </c>
       <c r="B112" s="53" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="45">
       <c r="A113" s="53" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="B113" s="53" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="30">
-      <c r="A114" s="57" t="s">
-        <v>985</v>
-      </c>
-      <c r="B114" s="57" t="s">
-        <v>986</v>
-      </c>
-      <c r="C114" s="57" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="83"/>
-      <c r="B115" s="83"/>
-      <c r="C115" s="83"/>
-    </row>
-    <row r="116" spans="1:3" ht="18.75">
-      <c r="A116" s="81" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B116" s="81"/>
-      <c r="C116" s="81"/>
-    </row>
-    <row r="117" spans="1:3" ht="45">
-      <c r="A117" s="53" t="s">
-        <v>988</v>
-      </c>
-      <c r="B117" s="53" t="s">
-        <v>990</v>
-      </c>
-      <c r="C117" s="53" t="s">
-        <v>994</v>
-      </c>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="90">
+      <c r="A114" s="53" t="s">
+        <v>973</v>
+      </c>
+      <c r="B114" s="53" t="s">
+        <v>972</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="90">
+      <c r="A115" s="53" t="s">
+        <v>855</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>928</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="18.75">
+      <c r="A117" s="90" t="s">
+        <v>976</v>
+      </c>
+      <c r="B117" s="90"/>
+      <c r="C117" s="90"/>
     </row>
     <row r="118" spans="1:3" ht="30">
       <c r="A118" s="53" t="s">
+        <v>857</v>
+      </c>
+      <c r="B118" s="53" t="s">
+        <v>861</v>
+      </c>
+      <c r="C118" s="53" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30">
+      <c r="A119" s="53" t="s">
+        <v>859</v>
+      </c>
+      <c r="B119" s="53" t="s">
+        <v>860</v>
+      </c>
+      <c r="C119" s="53" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="59"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="59"/>
+    </row>
+    <row r="121" spans="1:3" ht="18.75">
+      <c r="A121" s="90" t="s">
+        <v>977</v>
+      </c>
+      <c r="B121" s="90"/>
+      <c r="C121" s="90"/>
+    </row>
+    <row r="122" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A122" s="53" t="s">
+        <v>975</v>
+      </c>
+      <c r="B122" s="53" t="s">
+        <v>979</v>
+      </c>
+      <c r="C122" s="53" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A123" s="53" t="s">
+        <v>981</v>
+      </c>
+      <c r="B123" s="53" t="s">
+        <v>982</v>
+      </c>
+      <c r="C123" s="53" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30">
+      <c r="A124" s="57" t="s">
+        <v>983</v>
+      </c>
+      <c r="B124" s="57" t="s">
+        <v>984</v>
+      </c>
+      <c r="C124" s="57" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="60"/>
+      <c r="B125" s="60"/>
+      <c r="C125" s="60"/>
+    </row>
+    <row r="126" spans="1:3" ht="18.75">
+      <c r="A126" s="94" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B126" s="94"/>
+      <c r="C126" s="94"/>
+    </row>
+    <row r="127" spans="1:3" ht="45">
+      <c r="A127" s="53" t="s">
+        <v>986</v>
+      </c>
+      <c r="B127" s="53" t="s">
+        <v>988</v>
+      </c>
+      <c r="C127" s="53" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30">
+      <c r="A128" s="53" t="s">
+        <v>987</v>
+      </c>
+      <c r="B128" s="53" t="s">
         <v>989</v>
       </c>
-      <c r="B118" s="53" t="s">
+      <c r="C128" s="53" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="75" customHeight="1">
+      <c r="A129" s="53" t="s">
         <v>991</v>
       </c>
-      <c r="C118" s="53" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="75" customHeight="1">
-      <c r="A119" s="53" t="s">
+      <c r="B129" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="B119" s="53" t="s">
+      <c r="C129" s="53" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="60" customHeight="1">
+      <c r="A130" s="57" t="s">
         <v>995</v>
       </c>
-      <c r="C119" s="53" t="s">
+      <c r="B130" s="57" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="60" customHeight="1">
-      <c r="A120" s="57" t="s">
+      <c r="C130" s="95" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="62" t="s">
         <v>997</v>
       </c>
-      <c r="B120" s="57" t="s">
+      <c r="B131" s="64" t="s">
         <v>998</v>
       </c>
-      <c r="C120" s="84" t="s">
+      <c r="C131" s="96"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="63" t="s">
+        <v>999</v>
+      </c>
+      <c r="B132" s="65" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C132" s="97"/>
+    </row>
+    <row r="133" spans="1:3" ht="45">
+      <c r="A133" s="53" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B133" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C133" s="53" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="88" t="s">
-        <v>999</v>
-      </c>
-      <c r="B121" s="90" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C121" s="85"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="89" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B122" s="91" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C122" s="86"/>
-    </row>
-    <row r="123" spans="1:3" ht="45">
-      <c r="A123" s="53" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B123" s="53" t="s">
+    <row r="134" spans="1:3" ht="47.25" customHeight="1">
+      <c r="A134" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B134" s="53" t="s">
         <v>1006</v>
       </c>
-      <c r="C123" s="53" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="47.25" customHeight="1">
-      <c r="A124" s="53" t="s">
+      <c r="C134" s="53" t="s">
         <v>1007</v>
       </c>
-      <c r="B124" s="53" t="s">
+    </row>
+    <row r="135" spans="1:3" ht="45">
+      <c r="A135" s="53" t="s">
         <v>1008</v>
       </c>
-      <c r="C124" s="53" t="s">
+      <c r="B135" s="53" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C135" s="53" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="45">
-      <c r="A125" s="53" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B125" s="53" t="s">
+    <row r="136" spans="1:3" ht="52.5" customHeight="1">
+      <c r="A136" s="53" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B136" s="53" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C136" s="53" t="s">
         <v>1012</v>
       </c>
-      <c r="C125" s="53" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="52.5" customHeight="1">
-      <c r="A126" s="53" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B126" s="53" t="s">
+    </row>
+    <row r="137" spans="1:3" ht="50.25" customHeight="1">
+      <c r="A137" s="53" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B137" s="53" t="s">
         <v>1015</v>
       </c>
-      <c r="C126" s="53" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="50.25" customHeight="1">
-      <c r="A127" s="53" t="s">
+      <c r="C137" s="53" t="s">
         <v>1016</v>
       </c>
-      <c r="B127" s="53" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C127" s="53" t="s">
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="84" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="92" t="s">
+      <c r="B138" s="84"/>
+      <c r="C138" s="84"/>
+    </row>
+    <row r="139" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A139" s="53" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B139" s="53" t="s">
         <v>1020</v>
       </c>
-      <c r="B128" s="92"/>
-      <c r="C128" s="92"/>
-    </row>
-    <row r="129" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A129" s="53" t="s">
+      <c r="C139" s="53" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30">
+      <c r="A140" s="53" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B140" s="53" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C140" s="53" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30">
+      <c r="A141" s="53" t="s">
         <v>1029</v>
       </c>
-      <c r="B129" s="53" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C129" s="53" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="30">
-      <c r="A130" s="53" t="s">
+      <c r="B141" s="53" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C141" s="53" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30">
+      <c r="A142" s="53" t="s">
         <v>1030</v>
       </c>
-      <c r="B130" s="53" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C130" s="53" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="30">
-      <c r="A131" s="53" t="s">
+      <c r="B142" s="53" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C142" s="53" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="84" t="s">
         <v>1031</v>
       </c>
-      <c r="B131" s="53" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C131" s="53" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="30">
-      <c r="A132" s="53" t="s">
+      <c r="B143" s="84"/>
+      <c r="C143" s="84"/>
+    </row>
+    <row r="144" spans="1:3" ht="62.25" customHeight="1">
+      <c r="A144" s="53" t="s">
         <v>1032</v>
       </c>
-      <c r="B132" s="53" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C132" s="53" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="92" t="s">
+      <c r="B144" s="53" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C144" s="53" t="s">
         <v>1033</v>
       </c>
-      <c r="B133" s="92"/>
-      <c r="C133" s="92"/>
-    </row>
-    <row r="134" spans="1:3" ht="62.25" customHeight="1">
-      <c r="A134" s="53" t="s">
+    </row>
+    <row r="145" spans="1:3" ht="60">
+      <c r="A145" s="53" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B145" s="53" t="s">
         <v>1034</v>
       </c>
-      <c r="B134" s="53" t="s">
+      <c r="C145" s="53" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="45">
+      <c r="A147" s="53" t="s">
         <v>1037</v>
       </c>
-      <c r="C134" s="53" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="60">
-      <c r="A135" s="53" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B135" s="53" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C135" s="53" t="s">
+      <c r="B147" s="53" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C147" s="53" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="45">
-      <c r="A137" s="53" t="s">
+    <row r="148" spans="1:3" ht="45">
+      <c r="A148" s="53" t="s">
         <v>1039</v>
       </c>
-      <c r="B137" s="53" t="s">
+      <c r="B148" s="53" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C148" s="53" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="45">
+      <c r="A149" s="53" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B149" s="53" t="s">
         <v>1048</v>
       </c>
-      <c r="C137" s="53" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="45">
-      <c r="A138" s="53" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B138" s="53" t="s">
+      <c r="C149" s="53" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="45">
+      <c r="A150" s="53" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B150" s="53" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C150" s="53" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" customHeight="1"/>
+    <row r="152" spans="1:3" ht="30">
+      <c r="A152" s="85" t="s">
         <v>1049</v>
       </c>
-      <c r="C138" s="53" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="45">
-      <c r="A139" s="53" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B139" s="53" t="s">
+      <c r="B152" s="53" t="s">
         <v>1050</v>
       </c>
-      <c r="C139" s="53" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="45">
-      <c r="A140" s="53" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B140" s="53" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C140" s="53" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1"/>
-    <row r="142" spans="1:3" ht="15" customHeight="1"/>
-    <row r="143" spans="1:3" ht="15" customHeight="1"/>
-    <row r="144" spans="1:3" ht="15" customHeight="1"/>
-    <row r="145" ht="15" customHeight="1"/>
-    <row r="146" ht="15" customHeight="1"/>
-    <row r="147" ht="15" customHeight="1"/>
+      <c r="C152" s="53" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="45">
+      <c r="A153" s="85"/>
+      <c r="B153" s="53" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C153" s="53" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" customHeight="1"/>
+    <row r="155" spans="1:3" ht="60">
+      <c r="A155" s="53" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B155" s="53" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C155" s="87" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="60">
+      <c r="A156" s="53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B156" s="53" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C156" s="89"/>
+    </row>
+    <row r="157" spans="1:3" ht="15" customHeight="1">
+      <c r="A157" s="86" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B157" s="86"/>
+      <c r="C157" s="86"/>
+    </row>
+    <row r="158" spans="1:3" ht="30">
+      <c r="A158" s="57" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B158" s="57" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C158" s="87" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B159" s="53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C159" s="88"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="66" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B160" s="53" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C160" s="88"/>
+    </row>
+    <row r="161" spans="1:3" ht="30">
+      <c r="A161" s="53" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B161" s="53" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C161" s="89"/>
+    </row>
+    <row r="162" spans="1:3" ht="45">
+      <c r="A162" s="53" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B162" s="53"/>
+      <c r="C162" s="53" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="84" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B163" s="84"/>
+      <c r="C163" s="84"/>
+    </row>
+    <row r="164" spans="1:3" ht="51.75" customHeight="1">
+      <c r="A164" s="53" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B164" s="53" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C164" s="75" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="51.75" customHeight="1">
+      <c r="A165" s="53" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B165" s="53" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C165" s="75"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="84" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B166" s="84"/>
+      <c r="C166" s="84"/>
+    </row>
+    <row r="167" spans="1:3" ht="60">
+      <c r="A167" s="53" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B167" s="53" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C167" s="53" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="60">
+      <c r="A168" s="53" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B168" s="53" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C168" s="53" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="45">
+      <c r="A169" s="53" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B169" s="53" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C169" s="53" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30">
+      <c r="A170" s="53" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B170" s="53" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C170" s="53"/>
+    </row>
+    <row r="171" spans="1:3" ht="30">
+      <c r="A171" s="53" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B171" s="53" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C171" s="53"/>
+    </row>
+    <row r="172" spans="1:3" ht="51.75" customHeight="1">
+      <c r="A172" s="53" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B172" s="53" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C172" s="53"/>
+    </row>
+    <row r="173" spans="1:3" ht="45">
+      <c r="A173" s="53" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B173" s="53" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C173" s="53" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="30">
+      <c r="A174" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="B174" s="53" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C174" s="53" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="60">
+      <c r="A176" s="53" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B176" s="53" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C176" s="53"/>
+    </row>
+    <row r="177" spans="1:3" ht="75">
+      <c r="A177" s="53" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B177" s="53" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C177" s="53"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A107:C107"/>
+  <mergeCells count="28">
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A117:C117"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="A163:C163"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23" bottom="0.17" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
